--- a/data/data_prep/family_data_original.xlsx
+++ b/data/data_prep/family_data_original.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v7\web\data\data_prep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2CB31D-F40A-4E7E-879E-BDABC9B0D576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E3D788-8E85-451E-91A3-C383BEEE654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="18960" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="720" windowWidth="24510" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FamilyData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
   <si>
     <t>PersonID</t>
   </si>
@@ -67,9 +67,6 @@
     <t>PlaceNow</t>
   </si>
   <si>
-    <t>Occupation</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>12.12.2019</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>Сережа</t>
   </si>
   <si>
-    <t>12.01.1947</t>
-  </si>
-  <si>
     <t>4, 5</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Димка</t>
   </si>
   <si>
-    <t>12.01.1948</t>
-  </si>
-  <si>
     <t>3, 5</t>
   </si>
   <si>
@@ -238,9 +226,6 @@
     <t>Мельников</t>
   </si>
   <si>
-    <t>12.01.1946</t>
-  </si>
-  <si>
     <t>6, 8</t>
   </si>
   <si>
@@ -256,9 +241,6 @@
     <t>Мельникова</t>
   </si>
   <si>
-    <t>15.01.1947</t>
-  </si>
-  <si>
     <t>id11-milana.png</t>
   </si>
   <si>
@@ -268,9 +250,6 @@
     <t>Глеб</t>
   </si>
   <si>
-    <t>12.12.2018</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -367,9 +346,6 @@
     <t>Виктория</t>
   </si>
   <si>
-    <t>Kostia</t>
-  </si>
-  <si>
     <t>Константин</t>
   </si>
   <si>
@@ -379,9 +355,6 @@
     <t>Леонид</t>
   </si>
   <si>
-    <t>12.01.1945</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -454,9 +427,6 @@
     <t>Аппалинарий</t>
   </si>
   <si>
-    <t>23.10.1939</t>
-  </si>
-  <si>
     <t>1, 21</t>
   </si>
   <si>
@@ -656,6 +626,33 @@
   </si>
   <si>
     <t>54</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>20.10.1989</t>
+  </si>
+  <si>
+    <t>04.08.2010</t>
+  </si>
+  <si>
+    <t>01.10.1955</t>
+  </si>
+  <si>
+    <t>28.11.1967</t>
+  </si>
+  <si>
+    <t>22.01.1966</t>
+  </si>
+  <si>
+    <t>Крупки, Беларусь</t>
+  </si>
+  <si>
+    <t>21.05.1966</t>
+  </si>
+  <si>
+    <t>11.10.1928</t>
   </si>
 </sst>
 </file>
@@ -1020,11 +1017,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1073,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1087,19 +1087,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1111,10 +1108,10 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M2">
         <v>4</v>
@@ -1125,22 +1122,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>4</v>
@@ -1151,19 +1145,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="I4">
         <v>21</v>
@@ -1172,22 +1166,22 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
         <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1195,19 +1189,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="I5">
         <v>21</v>
@@ -1216,19 +1210,19 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1236,19 +1230,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -1260,25 +1254,25 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1286,19 +1280,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1310,25 +1304,25 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1336,19 +1330,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1360,13 +1354,13 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1374,16 +1368,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1395,16 +1386,16 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1412,28 +1403,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1441,34 +1429,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1476,34 +1464,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1511,16 +1496,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1529,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M13">
         <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1543,16 +1525,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1561,13 +1540,13 @@
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M14">
         <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1575,19 +1554,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -1599,22 +1578,22 @@
         <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1622,31 +1601,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1654,19 +1630,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>24</v>
@@ -1678,22 +1651,22 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M17">
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="R17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1701,19 +1674,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1722,13 +1692,13 @@
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="O18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1736,19 +1706,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="H19">
         <v>19</v>
@@ -1760,25 +1730,25 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="R19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1786,28 +1756,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H20">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1815,19 +1782,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>18</v>
@@ -1844,19 +1808,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="H22">
         <v>22</v>
@@ -1868,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1894,19 +1858,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -1918,25 +1882,25 @@
         <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1944,16 +1908,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1970,37 +1931,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M25">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q25" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="R25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2008,19 +1966,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -2029,19 +1984,19 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M26">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q26" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="R26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2049,19 +2004,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I27">
         <v>24</v>
@@ -2070,19 +2022,19 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M27">
         <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q27" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="R27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2090,28 +2042,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28">
-        <v>2010</v>
+        <v>20</v>
       </c>
       <c r="H28">
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M28">
         <v>3</v>
@@ -2122,25 +2068,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29">
-        <v>2019</v>
+        <v>25</v>
       </c>
       <c r="H29">
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M29">
         <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2148,22 +2091,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30">
-        <v>1995</v>
+        <v>210</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2175,19 +2115,19 @@
         <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="R30" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2195,25 +2135,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="H31">
         <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -2224,22 +2161,25 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
       </c>
       <c r="H32">
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="R32" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2247,7 +2187,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
       </c>
       <c r="H33">
         <v>31</v>
@@ -2256,16 +2199,16 @@
         <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
       <c r="Q33" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2273,7 +2216,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
       </c>
       <c r="H34">
         <v>36</v>
@@ -2285,19 +2231,19 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M34">
         <v>3</v>
       </c>
       <c r="Q34" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="R34" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2305,10 +2251,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
       </c>
       <c r="H35">
         <v>38</v>
@@ -2320,19 +2269,19 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L35" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
       <c r="Q35" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="R35" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2340,7 +2289,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
       </c>
       <c r="H36">
         <v>44</v>
@@ -2352,19 +2304,19 @@
         <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="R36" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2372,13 +2324,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
       </c>
       <c r="H37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="M37">
         <v>3</v>
@@ -2389,7 +2344,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
       </c>
       <c r="H38">
         <v>53</v>
@@ -2401,7 +2359,7 @@
         <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M38">
         <v>4</v>
@@ -2412,22 +2370,25 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
       </c>
       <c r="H39">
         <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
       <c r="Q39" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2435,10 +2396,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -2447,13 +2411,13 @@
         <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2461,10 +2425,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
       </c>
       <c r="H41">
         <v>43</v>
@@ -2476,10 +2443,10 @@
         <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L41" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M41">
         <v>4</v>
@@ -2490,10 +2457,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
       </c>
       <c r="I42">
         <v>38</v>
@@ -2502,7 +2472,7 @@
         <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M42">
         <v>4</v>
@@ -2513,10 +2483,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
       </c>
       <c r="I43">
         <v>40</v>
@@ -2533,16 +2506,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
       </c>
       <c r="H44">
         <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M44">
         <v>4</v>
@@ -2553,13 +2529,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
       </c>
       <c r="H45">
         <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M45">
         <v>3</v>
@@ -2570,7 +2549,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>177</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
       </c>
       <c r="H46">
         <v>48</v>
@@ -2582,10 +2564,10 @@
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M46">
         <v>4</v>
@@ -2596,7 +2578,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
       </c>
       <c r="I47">
         <v>35</v>
@@ -2605,10 +2590,10 @@
         <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M47">
         <v>4</v>
@@ -2619,10 +2604,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
       </c>
       <c r="I48">
         <v>48</v>
@@ -2639,16 +2627,19 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
       </c>
       <c r="H49">
         <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M49">
         <v>4</v>
@@ -2659,19 +2650,22 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
       </c>
       <c r="I50">
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="M50">
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -2679,22 +2673,25 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
       </c>
       <c r="I51">
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -2702,19 +2699,22 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q52" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -2722,22 +2722,25 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
       </c>
       <c r="I53">
         <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="Q53" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -2745,13 +2748,16 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>198</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
       </c>
       <c r="H54">
         <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M54">
         <v>4</v>
@@ -2762,7 +2768,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
       </c>
       <c r="I55">
         <v>37</v>
@@ -2771,7 +2780,7 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M55">
         <v>5</v>
@@ -2782,7 +2791,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
       </c>
       <c r="I56">
         <v>37</v>
@@ -2791,7 +2803,7 @@
         <v>53</v>
       </c>
       <c r="K56" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M56">
         <v>5</v>

--- a/data/data_prep/family_data_original.xlsx
+++ b/data/data_prep/family_data_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savch\Google Drive\Work\Family-tree_v8 - reduced number of cells\web\data\data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E3D788-8E85-451E-91A3-C383BEEE654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB455C-FE1E-4B13-A4CA-10DE877ADBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="720" windowWidth="24510" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FamilyData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="279">
   <si>
     <t>PersonID</t>
   </si>
@@ -67,6 +67,9 @@
     <t>PlaceNow</t>
   </si>
   <si>
+    <t>About</t>
+  </si>
+  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -91,10 +94,13 @@
     <t>23</t>
   </si>
   <si>
-    <t>Noname</t>
-  </si>
-  <si>
-    <t>noname</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Марина</t>
   </si>
   <si>
     <t>F</t>
@@ -106,13 +112,16 @@
     <t>Сережа</t>
   </si>
   <si>
+    <t>20.10.1989</t>
+  </si>
+  <si>
     <t>4, 5</t>
   </si>
   <si>
-    <t>Palatka, Magadan region, Russia</t>
-  </si>
-  <si>
-    <t>Sankt-Peterburg, Russia</t>
+    <t>Палатка, Магаданская область, СССР</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, Россия</t>
   </si>
   <si>
     <t>Science, engineering</t>
@@ -127,13 +136,16 @@
     <t>Димка</t>
   </si>
   <si>
+    <t>04.08.2010</t>
+  </si>
+  <si>
     <t>3, 5</t>
   </si>
   <si>
-    <t>Magadan, Russia</t>
-  </si>
-  <si>
-    <t>Sokol, Magadan region, Russia</t>
+    <t>Магадан, Россия</t>
+  </si>
+  <si>
+    <t>Соколо, Магаданская область, Россия</t>
   </si>
   <si>
     <t>Kid</t>
@@ -172,10 +184,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Petropavlovsk, Kazahstan</t>
-  </si>
-  <si>
-    <t>Homemaker</t>
+    <t>Петропавловск, Казахстан</t>
   </si>
   <si>
     <t>id6-sophia.png</t>
@@ -190,7 +199,7 @@
     <t>05.02.2020</t>
   </si>
   <si>
-    <t>Novosibirsk, Russia</t>
+    <t>Новосибирск, Россия</t>
   </si>
   <si>
     <t>id7-sviatik.png</t>
@@ -208,7 +217,7 @@
     <t>12, 13</t>
   </si>
   <si>
-    <t>Krasnoyarsk, Russia</t>
+    <t>Красноярск, Россия</t>
   </si>
   <si>
     <t>Fedia</t>
@@ -226,13 +235,16 @@
     <t>Мельников</t>
   </si>
   <si>
+    <t>01.10.1955</t>
+  </si>
+  <si>
     <t>6, 8</t>
   </si>
   <si>
-    <t>Barnaul, Russia</t>
-  </si>
-  <si>
-    <t>Milana</t>
+    <t>Барнаул, Россия</t>
+  </si>
+  <si>
+    <t>Melania</t>
   </si>
   <si>
     <t>Милана</t>
@@ -271,6 +283,9 @@
     <t>Королёва</t>
   </si>
   <si>
+    <t>21.05.1966</t>
+  </si>
+  <si>
     <t>22, 18</t>
   </si>
   <si>
@@ -289,15 +304,21 @@
     <t>Королёв</t>
   </si>
   <si>
+    <t>15.03.1965</t>
+  </si>
+  <si>
     <t>Anna</t>
   </si>
   <si>
-    <t xml:space="preserve">Анна </t>
+    <t>Анна</t>
   </si>
   <si>
     <t>Жукова</t>
   </si>
   <si>
+    <t>15.05.1989</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -316,6 +337,9 @@
     <t>Игорь</t>
   </si>
   <si>
+    <t>17.10.1993</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -325,13 +349,16 @@
     <t>Пашков</t>
   </si>
   <si>
+    <t>28.11.1967</t>
+  </si>
+  <si>
     <t>22, 14</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Halle, Germany</t>
+    <t>Галле, ГДР</t>
   </si>
   <si>
     <t>id18-sergey.png</t>
@@ -346,222 +373,336 @@
     <t>Виктория</t>
   </si>
   <si>
+    <t>Пашкова</t>
+  </si>
+  <si>
+    <t>28.12.1968</t>
+  </si>
+  <si>
+    <t>02.06.1991</t>
+  </si>
+  <si>
+    <t>Leonid</t>
+  </si>
+  <si>
+    <t>Леонид</t>
+  </si>
+  <si>
+    <t>22.01.1966</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3, 4, 5</t>
+  </si>
+  <si>
+    <t>id21-leonid.png</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>14, 18</t>
+  </si>
+  <si>
+    <t>Teaching</t>
+  </si>
+  <si>
+    <t>id22-elena.png</t>
+  </si>
+  <si>
+    <t>Sasha</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Жуков</t>
+  </si>
+  <si>
+    <t>08.05.1989</t>
+  </si>
+  <si>
+    <t>id24-anton.png</t>
+  </si>
+  <si>
+    <t>Unia</t>
+  </si>
+  <si>
+    <t>Юняша</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>id25-unia.png</t>
+  </si>
+  <si>
+    <t>Elina</t>
+  </si>
+  <si>
+    <t>Элина</t>
+  </si>
+  <si>
+    <t>28.11.2009</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>id26-elina.png</t>
+  </si>
+  <si>
+    <t>Appolinar</t>
+  </si>
+  <si>
+    <t>Аппалинарий</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>1, 21</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Вера</t>
+  </si>
+  <si>
+    <t>05.08.1945</t>
+  </si>
+  <si>
+    <t>Крупки, Беларусь</t>
+  </si>
+  <si>
+    <t>Lilina</t>
+  </si>
+  <si>
+    <t>Лилина</t>
+  </si>
+  <si>
+    <t>11.10.1928</t>
+  </si>
+  <si>
+    <t>21.08.1995</t>
+  </si>
+  <si>
+    <t>33, 34, 35</t>
+  </si>
+  <si>
+    <t>22, 14, 18</t>
+  </si>
+  <si>
+    <t>id29-lilina.png</t>
+  </si>
+  <si>
+    <t>id31_id33_id34_id35_id38_id29.png</t>
+  </si>
+  <si>
+    <t>Alexand deda</t>
+  </si>
+  <si>
+    <t>14.06.1925</t>
+  </si>
+  <si>
+    <t>05.02.1995</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Софья</t>
+  </si>
+  <si>
+    <t>Лапцевич</t>
+  </si>
+  <si>
+    <t>29, 33, 34, 35</t>
+  </si>
+  <si>
+    <t>id31-sofia.png</t>
+  </si>
+  <si>
+    <t>Vasiliy</t>
+  </si>
+  <si>
+    <t>Василий</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>id32-vasilii.png</t>
+  </si>
+  <si>
+    <t>Fyodor</t>
+  </si>
+  <si>
+    <t>29, 34, 35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>id33-fedor.png</t>
+  </si>
+  <si>
+    <t>Ольга (Лёля)</t>
+  </si>
+  <si>
+    <t>Григорьева</t>
+  </si>
+  <si>
+    <t>29, 33, 35</t>
+  </si>
+  <si>
+    <t>39, 56</t>
+  </si>
+  <si>
+    <t>Lviv,Ukraina</t>
+  </si>
+  <si>
+    <t>id34-lelia.png</t>
+  </si>
+  <si>
+    <t>Nikolai</t>
+  </si>
+  <si>
+    <t>29, 33, 34</t>
+  </si>
+  <si>
+    <t>45, 46</t>
+  </si>
+  <si>
+    <t>id35-nikolay.png</t>
+  </si>
+  <si>
+    <t>Evgeniya</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Юрий</t>
+  </si>
+  <si>
+    <t>54, 55</t>
+  </si>
+  <si>
+    <t>Новгород</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Григорьев</t>
+  </si>
+  <si>
+    <t>Вологодская область, Россия</t>
+  </si>
+  <si>
+    <t>Отравлен угарным газом бандеровцами после войны</t>
+  </si>
+  <si>
+    <t>id38-ivan.png</t>
+  </si>
+  <si>
+    <t>Galina</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
+    <t>Колосова</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>41, 57</t>
+  </si>
+  <si>
+    <t>New-York</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Колосов</t>
+  </si>
+  <si>
+    <t>Konstantin</t>
+  </si>
+  <si>
     <t>Константин</t>
   </si>
   <si>
-    <t>Leonid</t>
-  </si>
-  <si>
-    <t>Леонид</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3, 4, 5</t>
-  </si>
-  <si>
-    <t>id1-leonid.png</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>Елена</t>
-  </si>
-  <si>
-    <t>14, 18</t>
-  </si>
-  <si>
-    <t>Teaching</t>
-  </si>
-  <si>
-    <t>id2-elena.png</t>
-  </si>
-  <si>
-    <t>Sasha</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Антон</t>
-  </si>
-  <si>
-    <t>Жуков</t>
-  </si>
-  <si>
-    <t>id24-anton.png</t>
-  </si>
-  <si>
-    <t>Unia</t>
-  </si>
-  <si>
-    <t>Юняша</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>id25-unia.png</t>
-  </si>
-  <si>
-    <t>Elina</t>
-  </si>
-  <si>
-    <t>Элина</t>
-  </si>
-  <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>id26-elina.png</t>
-  </si>
-  <si>
-    <t>Appolinar</t>
-  </si>
-  <si>
-    <t>Аппалинарий</t>
-  </si>
-  <si>
-    <t>1, 21</t>
-  </si>
-  <si>
-    <t>Babush Belar</t>
-  </si>
-  <si>
-    <t>Lilina</t>
-  </si>
-  <si>
-    <t>Лилина</t>
-  </si>
-  <si>
-    <t>Пашкова</t>
-  </si>
-  <si>
-    <t>33, 34, 35</t>
-  </si>
-  <si>
-    <t>22, 14, 18</t>
-  </si>
-  <si>
-    <t>id29-lilina.png</t>
-  </si>
-  <si>
-    <t>id31_id33_id34_id35_id38_id29.png</t>
-  </si>
-  <si>
-    <t>Alexand deda</t>
-  </si>
-  <si>
-    <t>Софья</t>
-  </si>
-  <si>
-    <t>29, 33, 34, 35</t>
-  </si>
-  <si>
-    <t>id31-sofia.png</t>
-  </si>
-  <si>
-    <t>Василий</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>id32-vasilii.png</t>
-  </si>
-  <si>
-    <t>29, 34, 35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>id33-fedor.png</t>
-  </si>
-  <si>
-    <t>Ольга (Лёля)</t>
-  </si>
-  <si>
-    <t>Колосова</t>
-  </si>
-  <si>
-    <t>29, 33, 35</t>
-  </si>
-  <si>
-    <t>39, 40, 41</t>
-  </si>
-  <si>
-    <t>id34-lelia.png</t>
-  </si>
-  <si>
-    <t>29, 33, 34</t>
-  </si>
-  <si>
-    <t>45, 46</t>
-  </si>
-  <si>
-    <t>id35-nikolay.png</t>
-  </si>
-  <si>
-    <t>Евгения</t>
-  </si>
-  <si>
-    <t>Юрий</t>
-  </si>
-  <si>
-    <t>54, 55</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Колосов</t>
-  </si>
-  <si>
-    <t>id38-ivan.png</t>
-  </si>
-  <si>
-    <t>Галина</t>
-  </si>
-  <si>
-    <t>40, 41</t>
-  </si>
-  <si>
-    <t>New-York</t>
-  </si>
-  <si>
-    <t>Виктор</t>
-  </si>
-  <si>
-    <t>39, 41</t>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Лука</t>
+  </si>
+  <si>
+    <t>Ludmila</t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Лаврентьева</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>39, 40</t>
-  </si>
-  <si>
-    <t>Лука</t>
+    <t>Nina</t>
   </si>
   <si>
     <t>Нина</t>
   </si>
   <si>
+    <t>Irina</t>
+  </si>
+  <si>
     <t>Ирина</t>
   </si>
   <si>
+    <t>Фомичёва</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
+    <t>Boris</t>
+  </si>
+  <si>
     <t>Борис</t>
   </si>
   <si>
@@ -571,10 +712,13 @@
     <t>49, 50</t>
   </si>
   <si>
+    <t>Dmitriy</t>
+  </si>
+  <si>
     <t>Фомичёв</t>
   </si>
   <si>
-    <t>Марина</t>
+    <t>Victor</t>
   </si>
   <si>
     <t>50</t>
@@ -583,6 +727,9 @@
     <t>Работает на скорой</t>
   </si>
   <si>
+    <t>Vitaliy</t>
+  </si>
+  <si>
     <t>Виталий</t>
   </si>
   <si>
@@ -595,13 +742,16 @@
     <t>Спорт</t>
   </si>
   <si>
+    <t>Kazimir</t>
+  </si>
+  <si>
     <t>Каземир</t>
   </si>
   <si>
     <t>32, 52</t>
   </si>
   <si>
-    <t>Фотография Каземира сделана  в г. Ровны в 1928 году</t>
+    <t>Беларусь</t>
   </si>
   <si>
     <t>id51-kazimir.png</t>
@@ -616,43 +766,97 @@
     <t>id52-fedor.png</t>
   </si>
   <si>
+    <t>Natalya</t>
+  </si>
+  <si>
     <t>Наталья</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
+    <t>Evgeny</t>
+  </si>
+  <si>
     <t>Евгений</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>20.10.1989</t>
-  </si>
-  <si>
-    <t>04.08.2010</t>
-  </si>
-  <si>
-    <t>01.10.1955</t>
-  </si>
-  <si>
-    <t>28.11.1967</t>
-  </si>
-  <si>
-    <t>22.01.1966</t>
-  </si>
-  <si>
-    <t>Крупки, Беларусь</t>
-  </si>
-  <si>
-    <t>21.05.1966</t>
-  </si>
-  <si>
-    <t>11.10.1928</t>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>12.05.1970</t>
+  </si>
+  <si>
+    <t>04.09.1973</t>
+  </si>
+  <si>
+    <t>Терней, Приморский край, Россия</t>
+  </si>
+  <si>
+    <t>Шахты, Ростовская область, Россия</t>
+  </si>
+  <si>
+    <t>Находка, Приморский край, Россия</t>
+  </si>
+  <si>
+    <t>02.11.1992</t>
+  </si>
+  <si>
+    <t>Ленинград, СССР</t>
+  </si>
+  <si>
+    <t>14.01.2025</t>
+  </si>
+  <si>
+    <t>26.10.1941</t>
+  </si>
+  <si>
+    <t>02.12.2008</t>
+  </si>
+  <si>
+    <t>Заривная</t>
+  </si>
+  <si>
+    <t>30.09.1925</t>
+  </si>
+  <si>
+    <t>09.01.1931</t>
+  </si>
+  <si>
+    <t>02.12.?</t>
+  </si>
+  <si>
+    <t>06.09.1925</t>
+  </si>
+  <si>
+    <t>08.03.1925</t>
+  </si>
+  <si>
+    <t>07.07.?</t>
+  </si>
+  <si>
+    <t>22.02.?</t>
+  </si>
+  <si>
+    <t>Год рождения неточен.</t>
+  </si>
+  <si>
+    <t>Фотография Каземира сделана  в г. Ровны в 1928 году. Год рождения неточен</t>
+  </si>
+  <si>
+    <t>Хабаровск, Хабаровский край, СССР</t>
   </si>
 </sst>
 </file>
@@ -1015,15 +1219,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1073,13 +1276,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1087,16 +1290,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1108,13 +1314,22 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2">
         <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1122,22 +1337,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>259</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" t="s">
+        <v>262</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1145,19 +1375,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>21</v>
@@ -1166,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1189,19 +1419,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>21</v>
@@ -1210,19 +1440,19 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1230,19 +1460,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -1254,25 +1484,25 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1280,19 +1510,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1304,25 +1534,25 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1330,19 +1560,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1354,13 +1584,16 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1368,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1386,16 +1619,19 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1403,25 +1639,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1429,34 +1668,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1464,31 +1703,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1496,13 +1738,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -1511,13 +1753,16 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M13">
         <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1525,13 +1770,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1540,13 +1785,16 @@
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14">
         <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1554,19 +1802,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -1578,22 +1826,28 @@
         <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M15">
         <v>4</v>
       </c>
+      <c r="N15" t="s">
+        <v>264</v>
+      </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1601,28 +1855,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
+      <c r="N16" t="s">
+        <v>264</v>
+      </c>
       <c r="O16" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1630,16 +1893,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
       </c>
       <c r="H17">
         <v>24</v>
@@ -1651,22 +1917,28 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M17">
         <v>5</v>
       </c>
+      <c r="N17" t="s">
+        <v>264</v>
+      </c>
       <c r="O17" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="R17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1674,16 +1946,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1692,13 +1967,19 @@
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1706,19 +1987,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="H19">
         <v>19</v>
@@ -1730,25 +2011,28 @@
         <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="R19" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1756,25 +2040,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
       </c>
       <c r="H20">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1782,16 +2075,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
       </c>
       <c r="I21">
         <v>18</v>
@@ -1802,25 +2098,28 @@
       <c r="M21">
         <v>5</v>
       </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="H22">
         <v>22</v>
@@ -1832,25 +2131,25 @@
         <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1858,19 +2157,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -1882,25 +2181,25 @@
         <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="Q23" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1908,13 +2207,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>263</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1925,40 +2230,49 @@
       <c r="M24">
         <v>5</v>
       </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>136</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M25">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -1966,16 +2280,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>265</v>
       </c>
       <c r="I26">
         <v>24</v>
@@ -1984,19 +2301,22 @@
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M26">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
       </c>
       <c r="Q26" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="R26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2004,16 +2324,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
       </c>
       <c r="I27">
         <v>24</v>
@@ -2022,19 +2345,22 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M27">
         <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="R27" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2042,25 +2368,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>267</v>
       </c>
       <c r="H28">
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M28">
         <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>278</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2068,22 +2406,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>268</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="s">
+        <v>149</v>
       </c>
       <c r="H29">
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>208</v>
+        <v>154</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2091,19 +2444,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>157</v>
+      </c>
+      <c r="G30" t="s">
+        <v>158</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2115,19 +2471,22 @@
         <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
       <c r="Q30" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="R30" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2135,62 +2494,98 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" t="s">
+        <v>165</v>
       </c>
       <c r="H31">
         <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M31">
         <v>3</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>1894</v>
+      </c>
+      <c r="G32" t="s">
+        <v>149</v>
       </c>
       <c r="H32">
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
       <c r="Q32" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="R32" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F33">
+        <v>1897</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
       </c>
       <c r="H33">
         <v>31</v>
@@ -2199,27 +2594,39 @@
         <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
       <c r="Q33" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>1923</v>
       </c>
       <c r="H34">
         <v>36</v>
@@ -2231,33 +2638,42 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="M34">
         <v>3</v>
       </c>
+      <c r="P34" t="s">
+        <v>276</v>
+      </c>
       <c r="Q34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R34" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
       </c>
       <c r="H35">
         <v>38</v>
@@ -2269,30 +2685,45 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
+      <c r="O35" t="s">
+        <v>183</v>
+      </c>
+      <c r="P35" t="s">
+        <v>24</v>
+      </c>
       <c r="Q35" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="R35" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>270</v>
       </c>
       <c r="H36">
         <v>44</v>
@@ -2304,50 +2735,74 @@
         <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
+      <c r="O36" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
       <c r="Q36" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="R36" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H37">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="M37">
         <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>192</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38">
         <v>53</v>
@@ -2359,50 +2814,77 @@
         <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="M38">
         <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>194</v>
+      </c>
+      <c r="P38" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39">
         <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
+      <c r="N39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O39" t="s">
+        <v>183</v>
+      </c>
+      <c r="P39" t="s">
+        <v>199</v>
+      </c>
       <c r="Q39" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
       </c>
       <c r="I40">
         <v>38</v>
@@ -2411,148 +2893,205 @@
         <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>169</v>
+        <v>204</v>
+      </c>
+      <c r="L40" t="s">
+        <v>205</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>170</v>
+        <v>206</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41">
-        <v>43</v>
-      </c>
-      <c r="I41">
-        <v>38</v>
-      </c>
-      <c r="J41">
-        <v>34</v>
-      </c>
-      <c r="K41" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="L41" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="M41">
         <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>206</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J42">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K42" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>206</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>43</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="O43" t="s">
+        <v>206</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L44" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>272</v>
       </c>
       <c r="H45">
         <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M45">
         <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>221</v>
+      </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>222</v>
+      </c>
+      <c r="D46" t="s">
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>273</v>
       </c>
       <c r="H46">
         <v>48</v>
@@ -2564,24 +3103,39 @@
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="M46">
         <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>227</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>274</v>
       </c>
       <c r="I47">
         <v>35</v>
@@ -2590,27 +3144,39 @@
         <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="M47">
         <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>275</v>
       </c>
       <c r="I48">
         <v>48</v>
@@ -2620,158 +3186,221 @@
       </c>
       <c r="M48">
         <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49">
         <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="M49">
         <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I50">
         <v>46</v>
       </c>
       <c r="K50" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="M50">
         <v>5</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>235</v>
+      </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I51">
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <v>1867</v>
+      </c>
+      <c r="G52">
+        <v>1937</v>
       </c>
       <c r="L52" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
+      <c r="O52" t="s">
+        <v>243</v>
+      </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="Q52" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>149</v>
       </c>
       <c r="I53">
         <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
+      <c r="O53" t="s">
+        <v>33</v>
+      </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="Q53" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>248</v>
+      </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>249</v>
+      </c>
+      <c r="D54" t="s">
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H54">
         <v>37</v>
       </c>
       <c r="L54" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="M54">
         <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I55">
         <v>37</v>
@@ -2780,21 +3409,27 @@
         <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="M55">
         <v>5</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I56">
         <v>37</v>
@@ -2803,9 +3438,79 @@
         <v>53</v>
       </c>
       <c r="K56" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="P56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57">
+        <v>38</v>
+      </c>
+      <c r="J57">
+        <v>34</v>
+      </c>
+      <c r="K57" t="s">
+        <v>256</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58">
+        <v>43</v>
+      </c>
+      <c r="I58">
+        <v>40</v>
+      </c>
+      <c r="J58">
+        <v>39</v>
+      </c>
+      <c r="K58" t="s">
+        <v>257</v>
+      </c>
+      <c r="L58" t="s">
+        <v>218</v>
+      </c>
+      <c r="M58">
         <v>5</v>
       </c>
     </row>
